--- a/output/service.lua_ms.json/game.result.xlsx
+++ b/output/service.lua_ms.json/game.result.xlsx
@@ -523,29 +523,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>245</v>
+        <v>2476</v>
       </c>
       <c r="G2" t="n">
-        <v>9.641873278236915</v>
+        <v>97.44195198740653</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 07:00:00.000000', 'end': '2024-04-15 08:00:00.000000'}</t>
+          <t>info</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,29 +577,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>9.602518693427784</v>
+        <v>2.439984258166076</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 01:00:00.000000', 'end': '2024-04-15 02:00:00.000000'}</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,29 +631,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>9.602518693427784</v>
+        <v>0.1180637544273908</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 02:00:00.000000', 'end': '2024-04-15 03:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>244</v>
+        <v>2436</v>
       </c>
       <c r="G5" t="n">
-        <v>9.602518693427784</v>
+        <v>95.86776859504133</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 03:00:00.000000', 'end': '2024-04-15 04:00:00.000000'}</t>
+          <t>SingleWorldService</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="G6" t="n">
-        <v>9.602518693427784</v>
+        <v>2.439984258166076</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 04:00:00.000000', 'end': '2024-04-15 05:00:00.000000'}</t>
+          <t>PHONESTCORE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,29 +793,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>9.602518693427784</v>
+        <v>1.574183392365211</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 05:00:00.000000', 'end': '2024-04-15 06:00:00.000000'}</t>
+          <t>Gc</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,29 +847,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>9.602518693427784</v>
+        <v>0.1180637544273908</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 06:00:00.000000', 'end': '2024-04-15 07:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" t="n">
-        <v>9.602518693427784</v>
+        <v>9.641873278236915</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 08:00:00.000000', 'end': '2024-04-15 09:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 07:00:00.000000', 'end': '2024-04-15 08:00:00.000000'}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 01:00:00.000000', 'end': '2024-04-15 02:00:00.000000'}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G11" t="n">
-        <v>9.208972845336481</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 00:00:00.000000', 'end': '2024-04-15 01:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 02:00:00.000000', 'end': '2024-04-15 03:00:00.000000'}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,29 +1063,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>2476</v>
+        <v>244</v>
       </c>
       <c r="G12" t="n">
-        <v>97.44195198740653</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>{'start': '2024-04-15 03:00:00.000000', 'end': '2024-04-15 04:00:00.000000'}</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="G13" t="n">
-        <v>2.439984258166076</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>{'start': '2024-04-15 04:00:00.000000', 'end': '2024-04-15 05:00:00.000000'}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1180637544273908</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 05:00:00.000000', 'end': '2024-04-15 06:00:00.000000'}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1225,29 +1225,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>2436</v>
+        <v>244</v>
       </c>
       <c r="G15" t="n">
-        <v>95.86776859504133</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SingleWorldService</t>
+          <t>{'start': '2024-04-15 06:00:00.000000', 'end': '2024-04-15 07:00:00.000000'}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1279,29 +1279,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="G16" t="n">
-        <v>2.439984258166076</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PHONESTCORE</t>
+          <t>{'start': '2024-04-15 08:00:00.000000', 'end': '2024-04-15 09:00:00.000000'}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1333,29 +1333,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="G17" t="n">
-        <v>1.574183392365211</v>
+        <v>9.602518693427784</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Gc</t>
+          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1387,29 +1387,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1180637544273908</v>
+        <v>9.208972845336481</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 00:00:00.000000', 'end': '2024-04-15 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['PullDelayTime [microsecond]: 811002']</t>
+          <t>['PullDelayTime [microsecond]: 276710']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['PullDelayTime [microsecond]: 590339']</t>
+          <t>['PullDelayTime [microsecond]: 282106']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['PullDelayTime [microsecond]: 500211']</t>
+          <t>['PullDelayTime [microsecond]: 2389520']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['PullDelayTime [microsecond]: 861301']</t>
+          <t>['PullDelayTime [microsecond]: 415964']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['PullDelayTime [microsecond]: 2389520']</t>
+          <t>['PullDelayTime [microsecond]: 953066']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
